--- a/resources/humans.xlsx
+++ b/resources/humans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19050" windowHeight="1350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -205,6 +205,63 @@
   </si>
   <si>
     <t>Avery</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Obese</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Jogger</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>Criminal</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>CareerKey</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Ex</t>
   </si>
 </sst>
 </file>
@@ -531,90 +588,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/resources/humans.xlsx
+++ b/resources/humans.xlsx
@@ -591,16 +591,16 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -622,13 +622,13 @@
         <v>63</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -642,7 +642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -650,13 +650,13 @@
         <v>65</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -664,13 +664,13 @@
         <v>66</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -678,13 +678,13 @@
         <v>67</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -698,7 +698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -706,13 +706,13 @@
         <v>69</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -720,318 +720,318 @@
         <v>70</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>58</v>
       </c>
